--- a/dataset/file1.xlsx
+++ b/dataset/file1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Debian\home\thomas\projects\outlook_mail_reader\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBADC94-8FEA-42D1-A8B4-EEF9E47D5E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79BF3BC-6A01-4A1A-AB70-BCD314242C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2160" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4410" yWindow="3030" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,27 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>company a</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> company b</t>
-  </si>
-  <si>
-    <t>company c</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>searchItem</t>
   </si>
   <si>
-    <t>VOX-0001000022476409</t>
+    <t>company</t>
   </si>
   <si>
-    <t>zzzzzzzz</t>
+    <t xml:space="preserve"> company 2</t>
   </si>
   <si>
-    <t>company</t>
+    <t>company 4</t>
+  </si>
+  <si>
+    <t>company z</t>
   </si>
 </sst>
 </file>
@@ -81,8 +75,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,10 +358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -377,34 +372,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1234567</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1200000</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>480221567</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>789</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/file1.xlsx
+++ b/dataset/file1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Debian\home\thomas\projects\outlook_mail_reader\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79BF3BC-6A01-4A1A-AB70-BCD314242C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22774185-DB46-487F-95DD-BB6844296ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4410" yWindow="3030" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>searchItem</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>company z</t>
+  </si>
+  <si>
+    <t>company 1</t>
   </si>
 </sst>
 </file>
@@ -361,7 +364,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -380,7 +383,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1">
         <v>1234567</v>
